--- a/GraphPartitionTODOs.xlsx
+++ b/GraphPartitionTODOs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\GraphPartition\GraphPartition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8484F2CC-DF9C-4B16-B9B8-FDF26CB290F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D4F23F-F577-420C-BC12-9B324434A388}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{F0443E2F-E498-43DC-84E2-B84720F00A32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{F0443E2F-E498-43DC-84E2-B84720F00A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
     <sheet name="Genetic" sheetId="2" r:id="rId2"/>
     <sheet name="Local Search" sheetId="3" r:id="rId3"/>
     <sheet name="Branch &amp; Bound" sheetId="4" r:id="rId4"/>
+    <sheet name="Analyzation" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
   <si>
     <t>Graphs</t>
   </si>
@@ -142,13 +143,178 @@
   </si>
   <si>
     <t>Branch &amp; Bound</t>
+  </si>
+  <si>
+    <t>All three together</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Minimum N/4</t>
+  </si>
+  <si>
+    <t>Sum Graph</t>
+  </si>
+  <si>
+    <t># nodes iterated in tree</t>
+  </si>
+  <si>
+    <t>Min Bound</t>
+  </si>
+  <si>
+    <t>min N/4</t>
+  </si>
+  <si>
+    <t># Graph Nodes</t>
+  </si>
+  <si>
+    <t>Graph Type</t>
+  </si>
+  <si>
+    <t>Running Time</t>
+  </si>
+  <si>
+    <t>Min-Bound Analyzation</t>
+  </si>
+  <si>
+    <t>Random vs Greedy  Upper Bound Analyzation</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Randomized</t>
+  </si>
+  <si>
+    <t>4 clique</t>
+  </si>
+  <si>
+    <t>Result Sum of Weights</t>
+  </si>
+  <si>
+    <t>min graph</t>
+  </si>
+  <si>
+    <t>Neighborhood compare &amp; contrast</t>
+  </si>
+  <si>
+    <t>Settings Influence</t>
+  </si>
+  <si>
+    <t>1 Hour</t>
+  </si>
+  <si>
+    <t>same randomized graph</t>
+  </si>
+  <si>
+    <t>max graph</t>
+  </si>
+  <si>
+    <t>0.123 minutes</t>
+  </si>
+  <si>
+    <t>0.101 minutes</t>
+  </si>
+  <si>
+    <t>0.113 minutes</t>
+  </si>
+  <si>
+    <t>0.128 minutes</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Global Minimum</t>
+  </si>
+  <si>
+    <t>Local Minumum</t>
+  </si>
+  <si>
+    <t>2.3 minutes</t>
+  </si>
+  <si>
+    <t>7.5 minutes</t>
+  </si>
+  <si>
+    <t>6.3 minutes</t>
+  </si>
+  <si>
+    <t>5.0 minutes</t>
+  </si>
+  <si>
+    <t>19 minutes</t>
+  </si>
+  <si>
+    <t>53 minutes</t>
+  </si>
+  <si>
+    <t>41 minutes</t>
+  </si>
+  <si>
+    <t>66 minutes</t>
+  </si>
+  <si>
+    <t>2.0 hours</t>
+  </si>
+  <si>
+    <t>6.8 hours</t>
+  </si>
+  <si>
+    <t>5.9 hours</t>
+  </si>
+  <si>
+    <t>5.1 hours</t>
+  </si>
+  <si>
+    <t>Finishing Time</t>
+  </si>
+  <si>
+    <t>0.43 minutes</t>
+  </si>
+  <si>
+    <t>0.41 minutes</t>
+  </si>
+  <si>
+    <t>0.32 minutes</t>
+  </si>
+  <si>
+    <t>0.22 minutes</t>
+  </si>
+  <si>
+    <t>3.7 minutes</t>
+  </si>
+  <si>
+    <t>17.1 minutes</t>
+  </si>
+  <si>
+    <t>8.8 minutes</t>
+  </si>
+  <si>
+    <t>10.0 minutes</t>
+  </si>
+  <si>
+    <t>92 minutes</t>
+  </si>
+  <si>
+    <t>91 minutes</t>
+  </si>
+  <si>
+    <t>80 minutes</t>
+  </si>
+  <si>
+    <t>28 minutes</t>
+  </si>
+  <si>
+    <t>Copy One Partition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +345,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +441,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5BD4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDEEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAA242"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF765"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEF31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3B30D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD3BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE7CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6DDBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE68B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -479,12 +745,658 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,22 +1406,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,137 +1424,269 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,6 +1694,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE68B"/>
+      <color rgb="FFFFC969"/>
+      <color rgb="FFF6DDBC"/>
+      <color rgb="FFFAD3BE"/>
+      <color rgb="FFFCE7CC"/>
+      <color rgb="FFFBDDCD"/>
+      <color rgb="FFECF3FA"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFA3B30D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -668,6 +1717,2185 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Log Scale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Graph Nodes / Tree Nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Min Bound = 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analyzation!$E$67:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analyzation!$I$67:$I$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3039751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98795020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD36-4D9E-BB26-FA40FE7210CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Min Bound N/4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analyzation!$E$72:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analyzation!$I$72:$I$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>840947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37258591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FD36-4D9E-BB26-FA40FE7210CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="567105336"/>
+        <c:axId val="567105008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="567105336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567105008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="567105008"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567105336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ECF3FA"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Log Scale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Graph Nodes / Tree Nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Upper Bound = Greedy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analyzation!$E$82:$E$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analyzation!$I$82:$I$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>747081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34214860</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57FC-48CA-985B-77B96545B4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Upper Bound = Randomized</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analyzation!$E$87:$E$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analyzation!$I$87:$I$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>761323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38700837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-57FC-48CA-985B-77B96545B4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="567105336"/>
+        <c:axId val="567105008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="567105336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567105008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="567105008"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567105336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ECF3FA"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>33133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>248479</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6939C4C-D35B-4877-BED4-67C064BBA2F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C1D39A-506B-46C2-9AFD-7D7353CB964D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,10 +4198,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,57 +4211,65 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C9" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="51" t="s">
+    <row r="10" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C10" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1053,8 +4289,8 @@
   </sheetPr>
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,171 +4300,171 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1248,10 +4484,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,66 +4497,75 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="45"/>
+      <c r="C8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="46"/>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1331,10 +4576,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:D9"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,67 +4589,1352 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="54" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+    <row r="8" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="57"/>
+      <c r="C8" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E5CE69-619B-4325-99AA-A1C75D23FDD0}">
+  <sheetPr>
+    <tabColor rgb="FFFFC1FF"/>
+  </sheetPr>
+  <dimension ref="B1:L91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="92"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="129">
+        <v>100</v>
+      </c>
+      <c r="E7" s="95">
+        <v>5</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="133"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="136"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="93">
+        <v>10</v>
+      </c>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="114"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="136"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="93">
+        <v>20</v>
+      </c>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="114"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="136"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="93">
+        <v>40</v>
+      </c>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="114"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="136"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="134">
+        <v>60</v>
+      </c>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="114"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="136"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="132">
+        <v>20</v>
+      </c>
+      <c r="F12" s="93">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="114"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="136"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="114"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="136"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="93">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="114"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="136"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="93">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="114"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="136"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="93">
+        <v>1</v>
+      </c>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="114"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="136"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="114"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="136"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="114"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="136"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="114"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="136"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93">
+        <v>0.6</v>
+      </c>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="114"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="136"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93">
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="114"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="136"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="114"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="136"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="114"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="136"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="114"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="136"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="114"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="136"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="114"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="136"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="93"/>
+      <c r="L27" s="114"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="136"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="93"/>
+      <c r="L28" s="114"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="136"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="93"/>
+      <c r="L29" s="114"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="136"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="114"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="136"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="114"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="136"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="114"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="136"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="114"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="136"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="114"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="136"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="114"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="137"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="115"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="65"/>
+    </row>
+    <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D41" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="82"/>
+    </row>
+    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" s="119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D44" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="108">
+        <v>40</v>
+      </c>
+      <c r="I44" s="66">
+        <v>100</v>
+      </c>
+      <c r="J44" s="117" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D45" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="109"/>
+      <c r="F45" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="109"/>
+      <c r="I45" s="79">
+        <v>127</v>
+      </c>
+      <c r="J45" s="118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D46" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="109"/>
+      <c r="F46" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="109"/>
+      <c r="I46" s="79">
+        <v>100</v>
+      </c>
+      <c r="J46" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D47" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="110"/>
+      <c r="F47" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" s="110"/>
+      <c r="I47" s="79">
+        <v>100</v>
+      </c>
+      <c r="J47" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D48" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="120">
+        <v>60</v>
+      </c>
+      <c r="I48" s="116">
+        <v>225</v>
+      </c>
+      <c r="J48" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D49" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="121"/>
+      <c r="F49" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="121"/>
+      <c r="I49" s="116">
+        <v>263</v>
+      </c>
+      <c r="J49" s="118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D50" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="121"/>
+      <c r="F50" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="121"/>
+      <c r="I50" s="116">
+        <v>225</v>
+      </c>
+      <c r="J50" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D51" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="122"/>
+      <c r="F51" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="122"/>
+      <c r="I51" s="116">
+        <v>225</v>
+      </c>
+      <c r="J51" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D52" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="123">
+        <v>80</v>
+      </c>
+      <c r="I52" s="107">
+        <v>400</v>
+      </c>
+      <c r="J52" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D53" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="124"/>
+      <c r="F53" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="124"/>
+      <c r="I53" s="107">
+        <v>457</v>
+      </c>
+      <c r="J53" s="118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D54" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="124"/>
+      <c r="F54" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="124"/>
+      <c r="I54" s="107">
+        <v>400</v>
+      </c>
+      <c r="J54" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D55" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="125"/>
+      <c r="F55" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="125"/>
+      <c r="I55" s="107">
+        <v>400</v>
+      </c>
+      <c r="J55" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D56" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="126">
+        <v>100</v>
+      </c>
+      <c r="I56" s="106">
+        <v>625</v>
+      </c>
+      <c r="J56" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D57" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="127"/>
+      <c r="F57" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="127"/>
+      <c r="I57" s="106">
+        <v>645</v>
+      </c>
+      <c r="J57" s="118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D58" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="127"/>
+      <c r="F58" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="127"/>
+      <c r="I58" s="106">
+        <v>625</v>
+      </c>
+      <c r="J58" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="128"/>
+      <c r="F59" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="128"/>
+      <c r="I59" s="113">
+        <v>625</v>
+      </c>
+      <c r="J59" s="78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="62"/>
+    </row>
+    <row r="63" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D64" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="76"/>
+    </row>
+    <row r="65" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E67" s="69">
+        <v>4</v>
+      </c>
+      <c r="F67" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="97">
+        <v>0</v>
+      </c>
+      <c r="I67" s="70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E68" s="67">
+        <v>8</v>
+      </c>
+      <c r="F68" s="98"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="68">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E69" s="67">
+        <v>12</v>
+      </c>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="68">
+        <v>61347</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E70" s="67">
+        <v>16</v>
+      </c>
+      <c r="F70" s="98"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="68">
+        <v>3039751</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E71" s="67">
+        <v>20</v>
+      </c>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="96"/>
+      <c r="I71" s="68">
+        <v>98795020</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E72" s="99">
+        <v>4</v>
+      </c>
+      <c r="F72" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="H72" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E73" s="99">
+        <v>8</v>
+      </c>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="101">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E74" s="99">
+        <v>12</v>
+      </c>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="101">
+        <v>22589</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E75" s="99">
+        <v>16</v>
+      </c>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="101">
+        <v>840947</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="103">
+        <v>20</v>
+      </c>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="105">
+        <v>37258591</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E77" s="33"/>
+    </row>
+    <row r="78" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="4:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D79" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="76"/>
+    </row>
+    <row r="80" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E82" s="69">
+        <v>4</v>
+      </c>
+      <c r="F82" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="I82" s="70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E83" s="67">
+        <v>8</v>
+      </c>
+      <c r="F83" s="98"/>
+      <c r="G83" s="98"/>
+      <c r="H83" s="98"/>
+      <c r="I83" s="68">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E84" s="67">
+        <v>12</v>
+      </c>
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="68">
+        <v>23080</v>
+      </c>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E85" s="67">
+        <v>16</v>
+      </c>
+      <c r="F85" s="98"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="98"/>
+      <c r="I85" s="68">
+        <v>747081</v>
+      </c>
+    </row>
+    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E86" s="67">
+        <v>20</v>
+      </c>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="96"/>
+      <c r="I86" s="68">
+        <v>34214860</v>
+      </c>
+    </row>
+    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E87" s="99">
+        <v>4</v>
+      </c>
+      <c r="F87" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E88" s="99">
+        <v>8</v>
+      </c>
+      <c r="F88" s="102"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="102"/>
+      <c r="I88" s="101">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E89" s="99">
+        <v>12</v>
+      </c>
+      <c r="F89" s="102"/>
+      <c r="G89" s="102"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="101">
+        <v>22283</v>
+      </c>
+    </row>
+    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E90" s="99">
+        <v>16</v>
+      </c>
+      <c r="F90" s="102"/>
+      <c r="G90" s="102"/>
+      <c r="H90" s="102"/>
+      <c r="I90" s="101">
+        <v>761323</v>
+      </c>
+    </row>
+    <row r="91" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="103">
+        <v>20</v>
+      </c>
+      <c r="F91" s="104"/>
+      <c r="G91" s="104"/>
+      <c r="H91" s="104"/>
+      <c r="I91" s="105">
+        <v>38700837</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="D7:D36"/>
+    <mergeCell ref="C7:C36"/>
+    <mergeCell ref="E12:E36"/>
+    <mergeCell ref="B7:B36"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="H72:H76"/>
+    <mergeCell ref="F87:F91"/>
+    <mergeCell ref="G87:G91"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="G82:G86"/>
+    <mergeCell ref="H87:H91"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="D79:J79"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B39:L39"/>
+    <mergeCell ref="B62:L62"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="F72:F76"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/GraphPartitionTODOs.xlsx
+++ b/GraphPartitionTODOs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\GraphPartition\GraphPartition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D4F23F-F577-420C-BC12-9B324434A388}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7206E02-8A55-4E4D-84F3-BF562439CFCC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{F0443E2F-E498-43DC-84E2-B84720F00A32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{F0443E2F-E498-43DC-84E2-B84720F00A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="93">
   <si>
     <t>Graphs</t>
   </si>
@@ -873,21 +873,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -1269,6 +1254,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1376,6 +1374,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1424,35 +1548,116 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,80 +1665,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1541,7 +1674,7 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1550,143 +1683,8 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4211,10 +4209,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4300,11 +4298,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4355,7 +4353,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="81" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4366,7 +4364,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -4375,7 +4373,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4386,7 +4384,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
@@ -4395,7 +4393,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4404,7 +4402,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="81" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -4415,7 +4413,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
@@ -4424,7 +4422,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
@@ -4433,7 +4431,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
@@ -4442,7 +4440,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="13" t="s">
         <v>27</v>
       </c>
@@ -4451,7 +4449,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
@@ -4460,7 +4458,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="16" t="s">
         <v>29</v>
       </c>
@@ -4497,11 +4495,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4525,7 +4523,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="86" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4536,7 +4534,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -4545,7 +4543,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="32" t="s">
         <v>21</v>
       </c>
@@ -4554,7 +4552,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
@@ -4576,10 +4574,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,68 +4587,58 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="93" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+    <row r="7" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4664,8 +4652,8 @@
   </sheetPr>
   <dimension ref="B1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4684,1063 +4672,1063 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="92"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="136"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="133"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="85" t="s">
+      <c r="K6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="129">
-        <v>100</v>
-      </c>
-      <c r="E7" s="95">
+      <c r="D7" s="100">
+        <v>80</v>
+      </c>
+      <c r="E7" s="58">
         <v>5</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="133"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="136"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="93">
+      <c r="B8" s="105"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="56">
         <v>10</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="114"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="136"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="93">
+      <c r="B9" s="105"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="56">
         <v>20</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="114"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="136"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="93">
+      <c r="B10" s="105"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="56">
         <v>40</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="114"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="136"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="134">
+      <c r="B11" s="105"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="75">
         <v>60</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="114"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="136"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="132">
+      <c r="B12" s="105"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="103">
         <v>20</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="56">
         <v>0.2</v>
       </c>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="114"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="136"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="93">
+      <c r="B13" s="105"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="56">
         <v>0.4</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="114"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="93">
+      <c r="B14" s="105"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="56">
         <v>0.6</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="114"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="93">
+      <c r="B15" s="105"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="56">
         <v>0.8</v>
       </c>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="114"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="136"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="93">
+      <c r="B16" s="105"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="56">
         <v>1</v>
       </c>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="114"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="68"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="136"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93">
+      <c r="B17" s="105"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56">
         <v>0.1</v>
       </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="114"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="68"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93">
+      <c r="B18" s="105"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56">
         <v>0.2</v>
       </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="114"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="68"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="136"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93">
+      <c r="B19" s="105"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56">
         <v>0.4</v>
       </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="114"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="136"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93">
+      <c r="B20" s="105"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56">
         <v>0.6</v>
       </c>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="114"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="68"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93">
+      <c r="B21" s="105"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56">
         <v>0.05</v>
       </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="114"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="136"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93">
+      <c r="B22" s="105"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56">
         <v>0.1</v>
       </c>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="114"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="136"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93">
+      <c r="B23" s="105"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56">
         <v>0.2</v>
       </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="114"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="136"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93">
+      <c r="B24" s="105"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56">
         <v>0.4</v>
       </c>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="114"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="136"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93" t="s">
+      <c r="B25" s="105"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="114"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="136"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93" t="s">
+      <c r="B26" s="105"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="114"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="68"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="136"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93" t="s">
+      <c r="B27" s="105"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="93"/>
-      <c r="L27" s="114"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="68"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="136"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93" t="s">
+      <c r="B28" s="105"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="93"/>
-      <c r="L28" s="114"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="136"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93" t="s">
+      <c r="B29" s="105"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="93"/>
-      <c r="L29" s="114"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="68"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="136"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93" t="s">
+      <c r="B30" s="105"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="114"/>
+      <c r="L30" s="68"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="136"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93" t="s">
+      <c r="B31" s="105"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="114"/>
+      <c r="L31" s="68"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="136"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93" t="s">
+      <c r="B32" s="105"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="114"/>
+      <c r="L32" s="68"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="136"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93" t="s">
+      <c r="B33" s="105"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="114"/>
+      <c r="L33" s="68"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="136"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93" t="s">
+      <c r="B34" s="105"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="114"/>
+      <c r="L34" s="68"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="136"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93" t="s">
+      <c r="B35" s="105"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="114"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="137"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94" t="s">
+      <c r="B36" s="106"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="115"/>
+      <c r="L36" s="69"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="127"/>
     </row>
     <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D41" s="80" t="s">
+      <c r="D41" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="82"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="124"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="111" t="s">
+      <c r="D43" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="83" t="s">
+      <c r="F43" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="83" t="s">
+      <c r="G43" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="83" t="s">
+      <c r="H43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I43" s="112" t="s">
+      <c r="I43" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="119" t="s">
+      <c r="J43" s="73" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="108" t="s">
+      <c r="E44" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="F44" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="66" t="s">
+      <c r="G44" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="108">
+      <c r="H44" s="97">
         <v>40</v>
       </c>
-      <c r="I44" s="66">
+      <c r="I44" s="41">
         <v>100</v>
       </c>
-      <c r="J44" s="117" t="s">
+      <c r="J44" s="71" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D45" s="79" t="s">
+      <c r="D45" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="109"/>
-      <c r="F45" s="79" t="s">
+      <c r="E45" s="98"/>
+      <c r="F45" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="79" t="s">
+      <c r="G45" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="109"/>
-      <c r="I45" s="79">
+      <c r="H45" s="98"/>
+      <c r="I45" s="51">
         <v>127</v>
       </c>
-      <c r="J45" s="118" t="s">
+      <c r="J45" s="72" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D46" s="79" t="s">
+      <c r="D46" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="109"/>
-      <c r="F46" s="79" t="s">
+      <c r="E46" s="98"/>
+      <c r="F46" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="79" t="s">
+      <c r="G46" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="H46" s="109"/>
-      <c r="I46" s="79">
+      <c r="H46" s="98"/>
+      <c r="I46" s="51">
         <v>100</v>
       </c>
-      <c r="J46" s="77" t="s">
+      <c r="J46" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D47" s="79" t="s">
+      <c r="D47" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="110"/>
-      <c r="F47" s="79" t="s">
+      <c r="E47" s="99"/>
+      <c r="F47" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="79" t="s">
+      <c r="G47" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H47" s="110"/>
-      <c r="I47" s="79">
+      <c r="H47" s="99"/>
+      <c r="I47" s="51">
         <v>100</v>
       </c>
-      <c r="J47" s="77" t="s">
+      <c r="J47" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D48" s="116" t="s">
+      <c r="D48" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="120" t="s">
+      <c r="E48" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="116" t="s">
+      <c r="F48" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G48" s="116" t="s">
+      <c r="G48" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="120">
+      <c r="H48" s="94">
         <v>60</v>
       </c>
-      <c r="I48" s="116">
+      <c r="I48" s="70">
         <v>225</v>
       </c>
-      <c r="J48" s="77" t="s">
+      <c r="J48" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D49" s="116" t="s">
+      <c r="D49" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="121"/>
-      <c r="F49" s="116" t="s">
+      <c r="E49" s="95"/>
+      <c r="F49" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="116" t="s">
+      <c r="G49" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="H49" s="121"/>
-      <c r="I49" s="116">
+      <c r="H49" s="95"/>
+      <c r="I49" s="70">
         <v>263</v>
       </c>
-      <c r="J49" s="118" t="s">
+      <c r="J49" s="72" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D50" s="116" t="s">
+      <c r="D50" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="121"/>
-      <c r="F50" s="116" t="s">
+      <c r="E50" s="95"/>
+      <c r="F50" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="116" t="s">
+      <c r="G50" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H50" s="121"/>
-      <c r="I50" s="116">
+      <c r="H50" s="95"/>
+      <c r="I50" s="70">
         <v>225</v>
       </c>
-      <c r="J50" s="77" t="s">
+      <c r="J50" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D51" s="116" t="s">
+      <c r="D51" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="122"/>
-      <c r="F51" s="116" t="s">
+      <c r="E51" s="96"/>
+      <c r="F51" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="G51" s="116" t="s">
+      <c r="G51" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="H51" s="122"/>
-      <c r="I51" s="116">
+      <c r="H51" s="96"/>
+      <c r="I51" s="70">
         <v>225</v>
       </c>
-      <c r="J51" s="77" t="s">
+      <c r="J51" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="123" t="s">
+      <c r="E52" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="107" t="s">
+      <c r="F52" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="G52" s="107" t="s">
+      <c r="G52" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="H52" s="123">
+      <c r="H52" s="107">
         <v>80</v>
       </c>
-      <c r="I52" s="107">
+      <c r="I52" s="64">
         <v>400</v>
       </c>
-      <c r="J52" s="77" t="s">
+      <c r="J52" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D53" s="107" t="s">
+      <c r="D53" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="124"/>
-      <c r="F53" s="107" t="s">
+      <c r="E53" s="108"/>
+      <c r="F53" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="G53" s="107" t="s">
+      <c r="G53" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="124"/>
-      <c r="I53" s="107">
+      <c r="H53" s="108"/>
+      <c r="I53" s="64">
         <v>457</v>
       </c>
-      <c r="J53" s="118" t="s">
+      <c r="J53" s="72" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D54" s="107" t="s">
+      <c r="D54" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="124"/>
-      <c r="F54" s="107" t="s">
+      <c r="E54" s="108"/>
+      <c r="F54" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="G54" s="107" t="s">
+      <c r="G54" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="H54" s="124"/>
-      <c r="I54" s="107">
+      <c r="H54" s="108"/>
+      <c r="I54" s="64">
         <v>400</v>
       </c>
-      <c r="J54" s="77" t="s">
+      <c r="J54" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D55" s="107" t="s">
+      <c r="D55" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="125"/>
-      <c r="F55" s="107" t="s">
+      <c r="E55" s="109"/>
+      <c r="F55" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="G55" s="107" t="s">
+      <c r="G55" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="H55" s="125"/>
-      <c r="I55" s="107">
+      <c r="H55" s="109"/>
+      <c r="I55" s="64">
         <v>400</v>
       </c>
-      <c r="J55" s="77" t="s">
+      <c r="J55" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D56" s="106" t="s">
+      <c r="D56" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="126" t="s">
+      <c r="E56" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="106" t="s">
+      <c r="F56" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G56" s="106" t="s">
+      <c r="G56" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="H56" s="126">
+      <c r="H56" s="110">
         <v>100</v>
       </c>
-      <c r="I56" s="106">
+      <c r="I56" s="63">
         <v>625</v>
       </c>
-      <c r="J56" s="77" t="s">
+      <c r="J56" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D57" s="106" t="s">
+      <c r="D57" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="127"/>
-      <c r="F57" s="106" t="s">
+      <c r="E57" s="111"/>
+      <c r="F57" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="G57" s="106" t="s">
+      <c r="G57" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="H57" s="127"/>
-      <c r="I57" s="106">
+      <c r="H57" s="111"/>
+      <c r="I57" s="63">
         <v>645</v>
       </c>
-      <c r="J57" s="118" t="s">
+      <c r="J57" s="72" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="106" t="s">
+      <c r="D58" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="127"/>
-      <c r="F58" s="106" t="s">
+      <c r="E58" s="111"/>
+      <c r="F58" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="G58" s="106" t="s">
+      <c r="G58" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="H58" s="127"/>
-      <c r="I58" s="106">
+      <c r="H58" s="111"/>
+      <c r="I58" s="63">
         <v>625</v>
       </c>
-      <c r="J58" s="77" t="s">
+      <c r="J58" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="113" t="s">
+      <c r="D59" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E59" s="128"/>
-      <c r="F59" s="113" t="s">
+      <c r="E59" s="112"/>
+      <c r="F59" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="G59" s="113" t="s">
+      <c r="G59" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="H59" s="128"/>
-      <c r="I59" s="113">
+      <c r="H59" s="112"/>
+      <c r="I59" s="67">
         <v>625</v>
       </c>
-      <c r="J59" s="78" t="s">
+      <c r="J59" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="62"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="129"/>
+      <c r="H62" s="129"/>
+      <c r="I62" s="129"/>
+      <c r="J62" s="129"/>
+      <c r="K62" s="129"/>
+      <c r="L62" s="130"/>
     </row>
     <row r="63" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D64" s="74" t="s">
+      <c r="D64" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="76"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="121"/>
     </row>
     <row r="65" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="71" t="s">
+      <c r="E66" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F66" s="72" t="s">
+      <c r="F66" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="72" t="s">
+      <c r="G66" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="72" t="s">
+      <c r="H66" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I66" s="73" t="s">
+      <c r="I66" s="48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E67" s="69">
+      <c r="E67" s="44">
         <v>4</v>
       </c>
-      <c r="F67" s="97" t="s">
+      <c r="F67" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="97" t="s">
+      <c r="G67" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="H67" s="97">
+      <c r="H67" s="116">
         <v>0</v>
       </c>
-      <c r="I67" s="70">
+      <c r="I67" s="45">
         <v>35</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E68" s="67">
+      <c r="E68" s="42">
         <v>8</v>
       </c>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="68">
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="43">
         <v>1351</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E69" s="67">
+      <c r="E69" s="42">
         <v>12</v>
       </c>
-      <c r="F69" s="98"/>
-      <c r="G69" s="98"/>
-      <c r="H69" s="98"/>
-      <c r="I69" s="68">
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="43">
         <v>61347</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E70" s="67">
+      <c r="E70" s="42">
         <v>16</v>
       </c>
-      <c r="F70" s="98"/>
-      <c r="G70" s="98"/>
-      <c r="H70" s="98"/>
-      <c r="I70" s="68">
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="117"/>
+      <c r="I70" s="43">
         <v>3039751</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E71" s="67">
+      <c r="E71" s="42">
         <v>20</v>
       </c>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="68">
+      <c r="F71" s="118"/>
+      <c r="G71" s="118"/>
+      <c r="H71" s="118"/>
+      <c r="I71" s="43">
         <v>98795020</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E72" s="99">
+      <c r="E72" s="59">
         <v>4</v>
       </c>
-      <c r="F72" s="100" t="s">
+      <c r="F72" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="G72" s="100" t="s">
+      <c r="G72" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="100" t="s">
+      <c r="H72" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="I72" s="101">
+      <c r="I72" s="60">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E73" s="99">
+      <c r="E73" s="59">
         <v>8</v>
       </c>
-      <c r="F73" s="102"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="102"/>
-      <c r="I73" s="101">
+      <c r="F73" s="114"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="60">
         <v>650</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E74" s="99">
+      <c r="E74" s="59">
         <v>12</v>
       </c>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="102"/>
-      <c r="I74" s="101">
+      <c r="F74" s="114"/>
+      <c r="G74" s="114"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="60">
         <v>22589</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E75" s="99">
+      <c r="E75" s="59">
         <v>16</v>
       </c>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="102"/>
-      <c r="I75" s="101">
+      <c r="F75" s="114"/>
+      <c r="G75" s="114"/>
+      <c r="H75" s="114"/>
+      <c r="I75" s="60">
         <v>840947</v>
       </c>
     </row>
     <row r="76" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="103">
+      <c r="E76" s="61">
         <v>20</v>
       </c>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="105">
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="62">
         <v>37258591</v>
       </c>
     </row>
@@ -5749,168 +5737,162 @@
     </row>
     <row r="78" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="4:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D79" s="74" t="s">
+      <c r="D79" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="76"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="120"/>
+      <c r="G79" s="120"/>
+      <c r="H79" s="120"/>
+      <c r="I79" s="120"/>
+      <c r="J79" s="121"/>
     </row>
     <row r="80" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="71" t="s">
+      <c r="E81" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="72" t="s">
+      <c r="F81" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G81" s="72" t="s">
+      <c r="G81" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H81" s="72" t="s">
+      <c r="H81" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I81" s="73" t="s">
+      <c r="I81" s="48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="69">
+      <c r="E82" s="44">
         <v>4</v>
       </c>
-      <c r="F82" s="97" t="s">
+      <c r="F82" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G82" s="97" t="s">
+      <c r="G82" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H82" s="97" t="s">
+      <c r="H82" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="I82" s="70">
+      <c r="I82" s="45">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E83" s="67">
+      <c r="E83" s="42">
         <v>8</v>
       </c>
-      <c r="F83" s="98"/>
-      <c r="G83" s="98"/>
-      <c r="H83" s="98"/>
-      <c r="I83" s="68">
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
+      <c r="H83" s="117"/>
+      <c r="I83" s="43">
         <v>505</v>
       </c>
     </row>
     <row r="84" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E84" s="67">
+      <c r="E84" s="42">
         <v>12</v>
       </c>
-      <c r="F84" s="98"/>
-      <c r="G84" s="98"/>
-      <c r="H84" s="98"/>
-      <c r="I84" s="68">
+      <c r="F84" s="117"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="117"/>
+      <c r="I84" s="43">
         <v>23080</v>
       </c>
     </row>
     <row r="85" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E85" s="67">
+      <c r="E85" s="42">
         <v>16</v>
       </c>
-      <c r="F85" s="98"/>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="68">
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="117"/>
+      <c r="I85" s="43">
         <v>747081</v>
       </c>
     </row>
     <row r="86" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E86" s="67">
+      <c r="E86" s="42">
         <v>20</v>
       </c>
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="68">
+      <c r="F86" s="118"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="43">
         <v>34214860</v>
       </c>
     </row>
     <row r="87" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E87" s="99">
+      <c r="E87" s="59">
         <v>4</v>
       </c>
-      <c r="F87" s="100" t="s">
+      <c r="F87" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="G87" s="100" t="s">
+      <c r="G87" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="H87" s="100" t="s">
+      <c r="H87" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="I87" s="101">
+      <c r="I87" s="60">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E88" s="99">
+      <c r="E88" s="59">
         <v>8</v>
       </c>
-      <c r="F88" s="102"/>
-      <c r="G88" s="102"/>
-      <c r="H88" s="102"/>
-      <c r="I88" s="101">
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="60">
         <v>520</v>
       </c>
     </row>
     <row r="89" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E89" s="99">
+      <c r="E89" s="59">
         <v>12</v>
       </c>
-      <c r="F89" s="102"/>
-      <c r="G89" s="102"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="101">
+      <c r="F89" s="114"/>
+      <c r="G89" s="114"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="60">
         <v>22283</v>
       </c>
     </row>
     <row r="90" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E90" s="99">
+      <c r="E90" s="59">
         <v>16</v>
       </c>
-      <c r="F90" s="102"/>
-      <c r="G90" s="102"/>
-      <c r="H90" s="102"/>
-      <c r="I90" s="101">
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="114"/>
+      <c r="I90" s="60">
         <v>761323</v>
       </c>
     </row>
     <row r="91" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="103">
+      <c r="E91" s="61">
         <v>20</v>
       </c>
-      <c r="F91" s="104"/>
-      <c r="G91" s="104"/>
-      <c r="H91" s="104"/>
-      <c r="I91" s="105">
+      <c r="F91" s="115"/>
+      <c r="G91" s="115"/>
+      <c r="H91" s="115"/>
+      <c r="I91" s="62">
         <v>38700837</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="D7:D36"/>
-    <mergeCell ref="C7:C36"/>
-    <mergeCell ref="E12:E36"/>
-    <mergeCell ref="B7:B36"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="F72:F76"/>
     <mergeCell ref="H56:H59"/>
     <mergeCell ref="H52:H55"/>
     <mergeCell ref="G72:G76"/>
@@ -5923,15 +5905,21 @@
     <mergeCell ref="H82:H86"/>
     <mergeCell ref="D64:J64"/>
     <mergeCell ref="D79:J79"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="B39:L39"/>
     <mergeCell ref="B62:L62"/>
     <mergeCell ref="F67:F71"/>
     <mergeCell ref="G67:G71"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="H67:H71"/>
-    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="B7:B36"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="B39:L39"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="D7:D36"/>
+    <mergeCell ref="C7:C36"/>
+    <mergeCell ref="E12:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GraphPartitionTODOs.xlsx
+++ b/GraphPartitionTODOs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\GraphPartition\GraphPartition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7206E02-8A55-4E4D-84F3-BF562439CFCC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F88D5D-11F7-49C9-AB41-121EC41263D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{F0443E2F-E498-43DC-84E2-B84720F00A32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{F0443E2F-E498-43DC-84E2-B84720F00A32}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Local Search" sheetId="3" r:id="rId3"/>
     <sheet name="Branch &amp; Bound" sheetId="4" r:id="rId4"/>
     <sheet name="Analyzation" sheetId="8" r:id="rId5"/>
+    <sheet name="TODOs" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="106">
   <si>
     <t>Graphs</t>
   </si>
@@ -175,12 +176,6 @@
     <t>Running Time</t>
   </si>
   <si>
-    <t>Min-Bound Analyzation</t>
-  </si>
-  <si>
-    <t>Random vs Greedy  Upper Bound Analyzation</t>
-  </si>
-  <si>
     <t>Upper Bound</t>
   </si>
   <si>
@@ -308,6 +303,51 @@
   </si>
   <si>
     <t>Copy One Partition</t>
+  </si>
+  <si>
+    <t>2.5^#Nodes</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
+  </si>
+  <si>
+    <t>3.1 hours</t>
+  </si>
+  <si>
+    <t>5.3 hours</t>
+  </si>
+  <si>
+    <t>2.2 hours</t>
+  </si>
+  <si>
+    <t>Even Graph</t>
+  </si>
+  <si>
+    <t>Min-Bound Analysis</t>
+  </si>
+  <si>
+    <t>Random vs Greedy  Upper Bound Analysis</t>
+  </si>
+  <si>
+    <t>Local Search 4 clique 140 nodes, 2 days one swap</t>
+  </si>
+  <si>
+    <t>Branch &amp; Bound:</t>
+  </si>
+  <si>
+    <t>2 Groups, N/2 N/2</t>
+  </si>
+  <si>
+    <t>על כל שיטה</t>
+  </si>
+  <si>
+    <t>תיאור במסמך</t>
+  </si>
+  <si>
+    <t>דוגמאות ריצה - קלטים ופלטים לא ענקיים</t>
+  </si>
+  <si>
+    <t>בין חמישה לעשרה</t>
   </si>
 </sst>
 </file>
@@ -362,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +565,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="54">
     <border>
@@ -1168,19 +1214,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1213,17 +1246,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1262,6 +1284,34 @@
       </left>
       <right style="thin">
         <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -1273,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1431,24 +1481,6 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1467,37 +1499,76 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,85 +1619,25 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,6 +1649,69 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1656,14 +1730,14 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1683,7 +1757,7 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2001,6 +2075,107 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2.5^#Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analyzation!$E$77:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analyzation!$I$77:$I$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1525.87890625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59604.644775390625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2328306.4365386963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90949470.177292824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B854-45CA-920C-6EAEE65FCA88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2141,11 +2316,15 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="2"/>
+        <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="3"/>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -2343,7 +2522,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Analyzation!$E$82:$E$86</c:f>
+              <c:f>Analyzation!$E$88:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2367,7 +2546,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Analyzation!$I$82:$I$86</c:f>
+              <c:f>Analyzation!$I$88:$I$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2442,7 +2621,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Analyzation!$E$87:$E$91</c:f>
+              <c:f>Analyzation!$E$93:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2466,7 +2645,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Analyzation!$I$87:$I$91</c:f>
+              <c:f>Analyzation!$I$93:$I$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3821,16 +4000,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>173936</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>33133</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447262</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>248479</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>24849</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>306456</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>8284</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3859,13 +4038,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>82825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4196,10 +4375,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4209,10 +4388,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
+      <c r="C2" s="84"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4257,17 +4436,25 @@
     </row>
     <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C11" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4288,7 +4475,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,11 +4485,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4353,7 +4540,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="88" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -4364,7 +4551,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -4373,7 +4560,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="88" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4384,7 +4571,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
@@ -4393,7 +4580,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="81"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
@@ -4402,7 +4589,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="88" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -4413,7 +4600,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="81"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
@@ -4422,7 +4609,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
@@ -4431,7 +4618,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="81"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
@@ -4440,7 +4627,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="81"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="13" t="s">
         <v>27</v>
       </c>
@@ -4449,7 +4636,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="81"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
@@ -4458,7 +4645,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="16" t="s">
         <v>29</v>
       </c>
@@ -4485,7 +4672,7 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4495,11 +4682,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4523,7 +4710,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="93" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4534,7 +4721,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="86"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
@@ -4543,7 +4730,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B8" s="87"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="32" t="s">
         <v>21</v>
       </c>
@@ -4552,7 +4739,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="88"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
@@ -4576,8 +4763,8 @@
   </sheetPr>
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,11 +4774,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4606,7 +4793,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="99" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -4617,7 +4804,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="92"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
@@ -4626,7 +4813,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="69" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="39" t="s">
@@ -4650,10 +4837,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC1FF"/>
   </sheetPr>
-  <dimension ref="B1:L91"/>
+  <dimension ref="B1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4672,557 +4859,579 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="136"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="133"/>
+      <c r="D4" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="141"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="55" t="s">
-        <v>53</v>
+      <c r="L6" s="79" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="100">
+      <c r="B7" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="103">
         <v>80</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="80">
         <v>5</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="74"/>
+      <c r="F7" s="103">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="103">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="103">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="105"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="56">
+      <c r="B8" s="116"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="81">
         <v>10</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="68"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="62"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="105"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="56">
+      <c r="B9" s="116"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="81">
         <v>20</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="68"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="62"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="105"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="56">
+      <c r="B10" s="116"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="81">
         <v>40</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="68"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="105"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="75">
+      <c r="B11" s="116"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="81">
         <v>60</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="68"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="62"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="105"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="103">
+      <c r="B12" s="116"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104">
         <v>20</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="81">
         <v>0.2</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="68"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="62"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="105"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="56">
+      <c r="B13" s="116"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="81">
         <v>0.4</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="68"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="105"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="56">
+      <c r="B14" s="116"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="81">
         <v>0.6</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="68"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="62"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="105"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="56">
+      <c r="B15" s="116"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="81">
         <v>0.8</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="68"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="62"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="105"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="56">
+      <c r="B16" s="116"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="81">
         <v>1</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="68"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="62"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="105"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56">
+      <c r="B17" s="116"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="81">
         <v>0.1</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="68"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="62"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56">
+      <c r="B18" s="116"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="81">
         <v>0.2</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="68"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="105"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56">
+      <c r="B19" s="116"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="81">
         <v>0.4</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="68"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="62"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="105"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56">
+      <c r="B20" s="116"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="81">
         <v>0.6</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="68"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="62"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="105"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56">
+      <c r="B21" s="116"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="81">
         <v>0.05</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="68"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="62"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="105"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56">
+      <c r="B22" s="116"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="81">
         <v>0.1</v>
       </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="68"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="62"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="105"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56">
+      <c r="B23" s="116"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="81">
         <v>0.2</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="68"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="62"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="105"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56">
+      <c r="B24" s="116"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="81">
         <v>0.4</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="68"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="62"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="105"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56" t="s">
+      <c r="B25" s="116"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104">
+        <v>0.05</v>
+      </c>
+      <c r="I25" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="68"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="62"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="105"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="68"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="62"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="105"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56" t="s">
+      <c r="B27" s="116"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="68"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="62"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="105"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56" t="s">
+      <c r="B28" s="116"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="68"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="62"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="105"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56" t="s">
+      <c r="B29" s="116"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="68"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="62"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="105"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56" t="s">
+      <c r="B30" s="116"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="68"/>
+      <c r="L30" s="62"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="105"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56" t="s">
+      <c r="B31" s="116"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="68"/>
+      <c r="L31" s="62"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="105"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56" t="s">
+      <c r="B32" s="116"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="68"/>
+      <c r="L32" s="62"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="105"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56" t="s">
+      <c r="B33" s="116"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="68"/>
+      <c r="L33" s="62"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="105"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56" t="s">
+      <c r="B34" s="116"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="68"/>
+      <c r="L34" s="62"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="105"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56" t="s">
+      <c r="B35" s="116"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="68"/>
+      <c r="L35" s="62"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="106"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57" t="s">
+      <c r="B36" s="117"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="69"/>
+      <c r="L36" s="63"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="127"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
     </row>
     <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D41" s="122" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="124"/>
+      <c r="D41" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="132"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="59" t="s">
         <v>33</v>
       </c>
       <c r="E43" s="52" t="s">
@@ -5232,368 +5441,368 @@
         <v>47</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H43" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I43" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="J43" s="73" t="s">
-        <v>64</v>
+      <c r="I43" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" s="67" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D44" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="97" t="s">
-        <v>52</v>
+      <c r="E44" s="118" t="s">
+        <v>50</v>
       </c>
       <c r="F44" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="97">
+        <v>81</v>
+      </c>
+      <c r="H44" s="118">
         <v>40</v>
       </c>
       <c r="I44" s="41">
         <v>100</v>
       </c>
-      <c r="J44" s="71" t="s">
-        <v>65</v>
+      <c r="J44" s="65" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D45" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="98"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="98"/>
+        <v>80</v>
+      </c>
+      <c r="H45" s="119"/>
       <c r="I45" s="51">
         <v>127</v>
       </c>
-      <c r="J45" s="72" t="s">
-        <v>66</v>
+      <c r="J45" s="66" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D46" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="98"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" s="98"/>
+        <v>79</v>
+      </c>
+      <c r="H46" s="119"/>
       <c r="I46" s="51">
         <v>100</v>
       </c>
       <c r="J46" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D47" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="99"/>
+      <c r="E47" s="120"/>
       <c r="F47" s="51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G47" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="H47" s="99"/>
+        <v>78</v>
+      </c>
+      <c r="H47" s="120"/>
       <c r="I47" s="51">
         <v>100</v>
       </c>
       <c r="J47" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D48" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D48" s="70" t="s">
+      <c r="G48" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="121">
+        <v>60</v>
+      </c>
+      <c r="I48" s="64">
+        <v>225</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D49" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="122"/>
+      <c r="F49" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="122"/>
+      <c r="I49" s="64">
+        <v>263</v>
+      </c>
+      <c r="J49" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D50" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="122"/>
+      <c r="F50" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="122"/>
+      <c r="I50" s="64">
+        <v>225</v>
+      </c>
+      <c r="J50" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D51" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="123"/>
+      <c r="F51" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="123"/>
+      <c r="I51" s="64">
+        <v>225</v>
+      </c>
+      <c r="J51" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D52" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="94">
-        <v>60</v>
-      </c>
-      <c r="I48" s="70">
-        <v>225</v>
-      </c>
-      <c r="J48" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D49" s="70" t="s">
+      <c r="E52" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="124">
+        <v>80</v>
+      </c>
+      <c r="I52" s="58">
+        <v>400</v>
+      </c>
+      <c r="J52" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D53" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="95"/>
-      <c r="F49" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="H49" s="95"/>
-      <c r="I49" s="70">
-        <v>263</v>
-      </c>
-      <c r="J49" s="72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D50" s="70" t="s">
+      <c r="E53" s="125"/>
+      <c r="F53" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="125"/>
+      <c r="I53" s="58">
+        <v>457</v>
+      </c>
+      <c r="J53" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D54" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="95"/>
-      <c r="F50" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="70" t="s">
+      <c r="E54" s="125"/>
+      <c r="F54" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" s="125"/>
+      <c r="I54" s="58">
+        <v>400</v>
+      </c>
+      <c r="J54" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D55" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="126"/>
+      <c r="F55" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="H50" s="95"/>
-      <c r="I50" s="70">
-        <v>225</v>
-      </c>
-      <c r="J50" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D51" s="70" t="s">
+      <c r="H55" s="126"/>
+      <c r="I55" s="58">
+        <v>400</v>
+      </c>
+      <c r="J55" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D56" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" s="127">
+        <v>100</v>
+      </c>
+      <c r="I56" s="57">
+        <v>625</v>
+      </c>
+      <c r="J56" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D57" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="128"/>
+      <c r="F57" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="128"/>
+      <c r="I57" s="57">
+        <v>645</v>
+      </c>
+      <c r="J57" s="66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D58" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="128"/>
+      <c r="F58" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="128"/>
+      <c r="I58" s="57">
+        <v>625</v>
+      </c>
+      <c r="J58" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="96"/>
-      <c r="F51" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="H51" s="96"/>
-      <c r="I51" s="70">
-        <v>225</v>
-      </c>
-      <c r="J51" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="G52" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52" s="107">
-        <v>80</v>
-      </c>
-      <c r="I52" s="64">
-        <v>400</v>
-      </c>
-      <c r="J52" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D53" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="108"/>
-      <c r="F53" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="H53" s="108"/>
-      <c r="I53" s="64">
-        <v>457</v>
-      </c>
-      <c r="J53" s="72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D54" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="108"/>
-      <c r="F54" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="H54" s="108"/>
-      <c r="I54" s="64">
-        <v>400</v>
-      </c>
-      <c r="J54" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D55" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="109"/>
-      <c r="F55" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" s="109"/>
-      <c r="I55" s="64">
-        <v>400</v>
-      </c>
-      <c r="J55" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D56" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="110">
-        <v>100</v>
-      </c>
-      <c r="I56" s="63">
+      <c r="E59" s="129"/>
+      <c r="F59" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="129"/>
+      <c r="I59" s="61">
         <v>625</v>
       </c>
-      <c r="J56" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D57" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="111"/>
-      <c r="F57" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="111"/>
-      <c r="I57" s="63">
-        <v>645</v>
-      </c>
-      <c r="J57" s="72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="111"/>
-      <c r="F58" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="111"/>
-      <c r="I58" s="63">
-        <v>625</v>
-      </c>
-      <c r="J58" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="112"/>
-      <c r="F59" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H59" s="112"/>
-      <c r="I59" s="67">
-        <v>625</v>
-      </c>
       <c r="J59" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:12" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="128" t="s">
+      <c r="B62" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="129"/>
-      <c r="L62" s="130"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="110"/>
+      <c r="L62" s="111"/>
     </row>
     <row r="63" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D64" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="120"/>
-      <c r="H64" s="120"/>
-      <c r="I64" s="120"/>
-      <c r="J64" s="121"/>
-    </row>
-    <row r="65" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="108"/>
+    </row>
+    <row r="65" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E66" s="46" t="s">
         <v>45</v>
       </c>
@@ -5601,7 +5810,7 @@
         <v>46</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H66" s="47" t="s">
         <v>43</v>
@@ -5610,285 +5819,350 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E67" s="44">
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E67" s="70">
         <v>4</v>
       </c>
-      <c r="F67" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" s="116" t="s">
+      <c r="F67" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="H67" s="116">
+      <c r="H67" s="112">
         <v>0</v>
       </c>
-      <c r="I67" s="45">
+      <c r="I67" s="71">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E68" s="42">
         <v>8</v>
       </c>
-      <c r="F68" s="117"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
+      <c r="F68" s="113"/>
+      <c r="G68" s="113"/>
+      <c r="H68" s="113"/>
       <c r="I68" s="43">
         <v>1351</v>
       </c>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E69" s="42">
         <v>12</v>
       </c>
-      <c r="F69" s="117"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="117"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="113"/>
+      <c r="H69" s="113"/>
       <c r="I69" s="43">
         <v>61347</v>
       </c>
     </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E70" s="42">
         <v>16</v>
       </c>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
       <c r="I70" s="43">
         <v>3039751</v>
       </c>
     </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E71" s="42">
         <v>20</v>
       </c>
-      <c r="F71" s="118"/>
-      <c r="G71" s="118"/>
-      <c r="H71" s="118"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
       <c r="I71" s="43">
         <v>98795020</v>
       </c>
     </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E72" s="59">
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E72" s="53">
         <v>4</v>
       </c>
-      <c r="F72" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="G72" s="113" t="s">
+      <c r="F72" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="113" t="s">
+      <c r="H72" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="I72" s="60">
+      <c r="I72" s="54">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E73" s="59">
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E73" s="53">
         <v>8</v>
       </c>
-      <c r="F73" s="114"/>
-      <c r="G73" s="114"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="60">
+      <c r="F73" s="145"/>
+      <c r="G73" s="145"/>
+      <c r="H73" s="145"/>
+      <c r="I73" s="54">
         <v>650</v>
       </c>
     </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E74" s="59">
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E74" s="53">
         <v>12</v>
       </c>
-      <c r="F74" s="114"/>
-      <c r="G74" s="114"/>
-      <c r="H74" s="114"/>
-      <c r="I74" s="60">
+      <c r="F74" s="145"/>
+      <c r="G74" s="145"/>
+      <c r="H74" s="145"/>
+      <c r="I74" s="54">
         <v>22589</v>
       </c>
     </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E75" s="59">
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E75" s="53">
         <v>16</v>
       </c>
-      <c r="F75" s="114"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="60">
+      <c r="F75" s="145"/>
+      <c r="G75" s="145"/>
+      <c r="H75" s="145"/>
+      <c r="I75" s="54">
         <v>840947</v>
       </c>
     </row>
-    <row r="76" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="61">
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E76" s="53">
         <v>20</v>
       </c>
-      <c r="F76" s="115"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="115"/>
-      <c r="I76" s="62">
+      <c r="F76" s="145"/>
+      <c r="G76" s="145"/>
+      <c r="H76" s="145"/>
+      <c r="I76" s="54">
         <v>37258591</v>
       </c>
     </row>
-    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E77" s="33"/>
-    </row>
-    <row r="78" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="4:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D79" s="119" t="s">
+    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E77" s="72">
+        <v>4</v>
+      </c>
+      <c r="F77" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="101"/>
+      <c r="H77" s="101"/>
+      <c r="I77" s="73">
+        <f>POWER(2.5,E77)</f>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E78" s="74">
+        <v>8</v>
+      </c>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="73">
+        <f t="shared" ref="I78:I81" si="0">POWER(2.5,E78)</f>
+        <v>1525.87890625</v>
+      </c>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="74">
+        <v>12</v>
+      </c>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="73">
+        <f t="shared" si="0"/>
+        <v>59604.644775390625</v>
+      </c>
+    </row>
+    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E80" s="74">
+        <v>16</v>
+      </c>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="73">
+        <f t="shared" si="0"/>
+        <v>2328306.4365386963</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="75">
+        <v>20</v>
+      </c>
+      <c r="F81" s="102"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="102"/>
+      <c r="I81" s="76">
+        <f t="shared" si="0"/>
+        <v>90949470.177292824</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E82" s="33"/>
+    </row>
+    <row r="83" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="33"/>
+    </row>
+    <row r="84" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="4:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D85" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="107"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="107"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="108"/>
+    </row>
+    <row r="86" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E88" s="44">
+        <v>4</v>
+      </c>
+      <c r="F88" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" s="45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E89" s="42">
+        <v>8</v>
+      </c>
+      <c r="F89" s="113"/>
+      <c r="G89" s="113"/>
+      <c r="H89" s="113"/>
+      <c r="I89" s="43">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E90" s="42">
+        <v>12</v>
+      </c>
+      <c r="F90" s="113"/>
+      <c r="G90" s="113"/>
+      <c r="H90" s="113"/>
+      <c r="I90" s="43">
+        <v>23080</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E91" s="42">
+        <v>16</v>
+      </c>
+      <c r="F91" s="113"/>
+      <c r="G91" s="113"/>
+      <c r="H91" s="113"/>
+      <c r="I91" s="43">
+        <v>747081</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E92" s="42">
+        <v>20</v>
+      </c>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114"/>
+      <c r="H92" s="114"/>
+      <c r="I92" s="43">
+        <v>34214860</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E93" s="53">
+        <v>4</v>
+      </c>
+      <c r="F93" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="E79" s="120"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="120"/>
-      <c r="H79" s="120"/>
-      <c r="I79" s="120"/>
-      <c r="J79" s="121"/>
-    </row>
-    <row r="80" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="F81" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="G81" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H81" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I81" s="48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E82" s="44">
+      <c r="I93" s="54">
         <v>4</v>
       </c>
-      <c r="F82" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="G82" s="116" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="I82" s="45">
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E94" s="53">
+        <v>8</v>
+      </c>
+      <c r="F94" s="137"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="137"/>
+      <c r="I94" s="54">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E95" s="53">
+        <v>12</v>
+      </c>
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="137"/>
+      <c r="I95" s="54">
+        <v>22283</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E96" s="53">
+        <v>16</v>
+      </c>
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="137"/>
+      <c r="I96" s="54">
+        <v>761323</v>
+      </c>
+    </row>
+    <row r="97" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="55">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E83" s="42">
-        <v>8</v>
-      </c>
-      <c r="F83" s="117"/>
-      <c r="G83" s="117"/>
-      <c r="H83" s="117"/>
-      <c r="I83" s="43">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E84" s="42">
-        <v>12</v>
-      </c>
-      <c r="F84" s="117"/>
-      <c r="G84" s="117"/>
-      <c r="H84" s="117"/>
-      <c r="I84" s="43">
-        <v>23080</v>
-      </c>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E85" s="42">
-        <v>16</v>
-      </c>
-      <c r="F85" s="117"/>
-      <c r="G85" s="117"/>
-      <c r="H85" s="117"/>
-      <c r="I85" s="43">
-        <v>747081</v>
-      </c>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E86" s="42">
-        <v>20</v>
-      </c>
-      <c r="F86" s="118"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="43">
-        <v>34214860</v>
-      </c>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E87" s="59">
-        <v>4</v>
-      </c>
-      <c r="F87" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="G87" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="I87" s="60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E88" s="59">
-        <v>8</v>
-      </c>
-      <c r="F88" s="114"/>
-      <c r="G88" s="114"/>
-      <c r="H88" s="114"/>
-      <c r="I88" s="60">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E89" s="59">
-        <v>12</v>
-      </c>
-      <c r="F89" s="114"/>
-      <c r="G89" s="114"/>
-      <c r="H89" s="114"/>
-      <c r="I89" s="60">
-        <v>22283</v>
-      </c>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E90" s="59">
-        <v>16</v>
-      </c>
-      <c r="F90" s="114"/>
-      <c r="G90" s="114"/>
-      <c r="H90" s="114"/>
-      <c r="I90" s="60">
-        <v>761323</v>
-      </c>
-    </row>
-    <row r="91" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="61">
-        <v>20</v>
-      </c>
-      <c r="F91" s="115"/>
-      <c r="G91" s="115"/>
-      <c r="H91" s="115"/>
-      <c r="I91" s="62">
+      <c r="F97" s="138"/>
+      <c r="G97" s="138"/>
+      <c r="H97" s="138"/>
+      <c r="I97" s="56">
         <v>38700837</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="45">
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="H67:H71"/>
@@ -5897,14 +6171,15 @@
     <mergeCell ref="H52:H55"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="H72:H76"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="G87:G91"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="G82:G86"/>
-    <mergeCell ref="H87:H91"/>
-    <mergeCell ref="H82:H86"/>
     <mergeCell ref="D64:J64"/>
-    <mergeCell ref="D79:J79"/>
+    <mergeCell ref="K7:K29"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="G93:G97"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="G88:G92"/>
+    <mergeCell ref="H93:H97"/>
+    <mergeCell ref="H88:H92"/>
+    <mergeCell ref="D85:J85"/>
     <mergeCell ref="B62:L62"/>
     <mergeCell ref="F67:F71"/>
     <mergeCell ref="G67:G71"/>
@@ -5920,9 +6195,75 @@
     <mergeCell ref="D7:D36"/>
     <mergeCell ref="C7:C36"/>
     <mergeCell ref="E12:E36"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="H77:H81"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="J30:J36"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="H25:H36"/>
+    <mergeCell ref="G21:G36"/>
+    <mergeCell ref="F17:F36"/>
+    <mergeCell ref="G7:G16"/>
+    <mergeCell ref="H7:H20"/>
+    <mergeCell ref="I7:I24"/>
+    <mergeCell ref="J7:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109DB7DB-D99C-41F8-9D21-DE922C38A101}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>